--- a/zzz in progress/abbBacot.xlsx
+++ b/zzz in progress/abbBacot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brl\Documents\GitHub\rKTs\zzz in progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\GitHub\rKTs\zzz in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B15819-BE7F-41EA-9888-534E64134315}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A34502-35AA-4C1F-8280-0849D517E0D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7EA4215D-28D0-4499-B7AE-49EC809FD74F}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="809">
   <si>
     <t>ku+onung</t>
   </si>
@@ -1408,6 +1399,1059 @@
   </si>
   <si>
     <t>nyid du</t>
+  </si>
+  <si>
+    <t>nyin mtshan</t>
+  </si>
+  <si>
+    <t>nyi ma dang mtshan mo</t>
+  </si>
+  <si>
+    <t>ny^in</t>
+  </si>
+  <si>
+    <t>nyaungs</t>
+  </si>
+  <si>
+    <t>nyong mongs</t>
+  </si>
+  <si>
+    <t>gnyis^in</t>
+  </si>
+  <si>
+    <t>gnyis 'dzin</t>
+  </si>
+  <si>
+    <t>gnyi+esad</t>
+  </si>
+  <si>
+    <t>gnyis med</t>
+  </si>
+  <si>
+    <t>gnyisu+ed</t>
+  </si>
+  <si>
+    <t>gnyis su med</t>
+  </si>
+  <si>
+    <t>gnyis te</t>
+  </si>
+  <si>
+    <t>gnyis kyi</t>
+  </si>
+  <si>
+    <t>2+is</t>
+  </si>
+  <si>
+    <t>mnyod</t>
+  </si>
+  <si>
+    <t>mnyan yod</t>
+  </si>
+  <si>
+    <t>mnyamid</t>
+  </si>
+  <si>
+    <t>mnyam nyid</t>
+  </si>
+  <si>
+    <t>mnyamg</t>
+  </si>
+  <si>
+    <t>mnyam bzhag</t>
+  </si>
+  <si>
+    <t>mnyamrag</t>
+  </si>
+  <si>
+    <t>mnyam par bzhag</t>
+  </si>
+  <si>
+    <t>snyi+eng</t>
+  </si>
+  <si>
+    <t>snying rje</t>
+  </si>
+  <si>
+    <t>snyi+e+eng</t>
+  </si>
+  <si>
+    <t>snying re rje</t>
+  </si>
+  <si>
+    <t>snyo+ing</t>
+  </si>
+  <si>
+    <t>snying po</t>
+  </si>
+  <si>
+    <t>snyingig</t>
+  </si>
+  <si>
+    <t>snying thig</t>
+  </si>
+  <si>
+    <t>snyingar</t>
+  </si>
+  <si>
+    <t>snying khar</t>
+  </si>
+  <si>
+    <t>bsnyur</t>
+  </si>
+  <si>
+    <t>bsnyen bkur</t>
+  </si>
+  <si>
+    <t>ting^in</t>
+  </si>
+  <si>
+    <t>ting nge 'dzin</t>
+  </si>
+  <si>
+    <t>tingêni</t>
+  </si>
+  <si>
+    <t>ting^ani</t>
+  </si>
+  <si>
+    <t>ting 'dzin</t>
+  </si>
+  <si>
+    <t>tingag</t>
+  </si>
+  <si>
+    <t>ting shag</t>
+  </si>
+  <si>
+    <t>gtu+ig</t>
+  </si>
+  <si>
+    <t>gti mug</t>
+  </si>
+  <si>
+    <t>gtu+ing</t>
+  </si>
+  <si>
+    <t>gtun shing</t>
+  </si>
+  <si>
+    <t>gtumo</t>
+  </si>
+  <si>
+    <t>gtum po</t>
+  </si>
+  <si>
+    <t>gtoraM</t>
+  </si>
+  <si>
+    <t>gtor ma</t>
+  </si>
+  <si>
+    <t>r+t+rin</t>
+  </si>
+  <si>
+    <t>rta mgrin</t>
+  </si>
+  <si>
+    <t>r+t+re+el</t>
+  </si>
+  <si>
+    <t>rten 'brel</t>
+  </si>
+  <si>
+    <t>sto+ingd</t>
+  </si>
+  <si>
+    <t>stong nyid</t>
+  </si>
+  <si>
+    <t>brtug</t>
+  </si>
+  <si>
+    <t>brtul zhugs</t>
+  </si>
+  <si>
+    <t>bstons</t>
+  </si>
+  <si>
+    <t>bstan bcos</t>
+  </si>
+  <si>
+    <t>bstos</t>
+  </si>
+  <si>
+    <t>bst^in</t>
+  </si>
+  <si>
+    <t>bstan 'dzin</t>
+  </si>
+  <si>
+    <t>b^in</t>
+  </si>
+  <si>
+    <t>bstonng</t>
+  </si>
+  <si>
+    <t>bstan skyong</t>
+  </si>
+  <si>
+    <t>bstan+yong</t>
+  </si>
+  <si>
+    <t>bstunngas</t>
+  </si>
+  <si>
+    <t>bstan bsrung</t>
+  </si>
+  <si>
+    <t>bs+t+rung</t>
+  </si>
+  <si>
+    <t>tham pa</t>
+  </si>
+  <si>
+    <t>thaM pa</t>
+  </si>
+  <si>
+    <t>thas+tsaMd</t>
+  </si>
+  <si>
+    <t>thams cad</t>
+  </si>
+  <si>
+    <t>thbes</t>
+  </si>
+  <si>
+    <t>thabs shes</t>
+  </si>
+  <si>
+    <t>hti+eg</t>
+  </si>
+  <si>
+    <t>thig le</t>
+  </si>
+  <si>
+    <t>th+yar</t>
+  </si>
+  <si>
+    <t>thugs khar</t>
+  </si>
+  <si>
+    <t>thu+egs</t>
+  </si>
+  <si>
+    <t>thugs rje</t>
+  </si>
+  <si>
+    <t>th+ye</t>
+  </si>
+  <si>
+    <t>th+yo+e+en</t>
+  </si>
+  <si>
+    <t>thugs rje chen po</t>
+  </si>
+  <si>
+    <t>th^u+egs</t>
+  </si>
+  <si>
+    <t>thugs brtse</t>
+  </si>
+  <si>
+    <t>thudaMng</t>
+  </si>
+  <si>
+    <t>th+yadam</t>
+  </si>
+  <si>
+    <t>thags dam bskang</t>
+  </si>
+  <si>
+    <t>thu+in</t>
+  </si>
+  <si>
+    <t>thun bzhi</t>
+  </si>
+  <si>
+    <t>thuben</t>
+  </si>
+  <si>
+    <t>thub chen</t>
+  </si>
+  <si>
+    <t>thunong</t>
+  </si>
+  <si>
+    <t>thun mong</t>
+  </si>
+  <si>
+    <t>thu+ong</t>
+  </si>
+  <si>
+    <t>tho+e</t>
+  </si>
+  <si>
+    <t>the tshom</t>
+  </si>
+  <si>
+    <t>tho+e+edaM</t>
+  </si>
+  <si>
+    <t>the tshom med</t>
+  </si>
+  <si>
+    <t>the+egan</t>
+  </si>
+  <si>
+    <t>theg chen</t>
+  </si>
+  <si>
+    <t>thoegd</t>
+  </si>
+  <si>
+    <t>thog med</t>
+  </si>
+  <si>
+    <t>th+rado+eng</t>
+  </si>
+  <si>
+    <t>thod phreng</t>
+  </si>
+  <si>
+    <t>th+ro+edng^al</t>
+  </si>
+  <si>
+    <t>thod phreng rtsal</t>
+  </si>
+  <si>
+    <t>thodag</t>
+  </si>
+  <si>
+    <t>th+rog</t>
+  </si>
+  <si>
+    <t>thod khrag</t>
+  </si>
+  <si>
+    <t>thabaurag</t>
+  </si>
+  <si>
+    <t>thob par shog</t>
+  </si>
+  <si>
+    <t>thu+or^ag</t>
+  </si>
+  <si>
+    <t>thor gtsug</t>
+  </si>
+  <si>
+    <t>mthas</t>
+  </si>
+  <si>
+    <t>mtha' yas</t>
+  </si>
+  <si>
+    <t>mth+yas</t>
+  </si>
+  <si>
+    <t>mth+ral</t>
+  </si>
+  <si>
+    <t>mtha bral</t>
+  </si>
+  <si>
+    <t>mthob</t>
+  </si>
+  <si>
+    <t>mtha 'khob</t>
+  </si>
+  <si>
+    <t>mth+yin</t>
+  </si>
+  <si>
+    <t>mthar phyin</t>
+  </si>
+  <si>
+    <t>mthirn</t>
+  </si>
+  <si>
+    <t>mthurag</t>
+  </si>
+  <si>
+    <t>mthar thug</t>
+  </si>
+  <si>
+    <t>mthingag</t>
+  </si>
+  <si>
+    <t>mthing nag</t>
+  </si>
+  <si>
+    <t>mth^ul</t>
+  </si>
+  <si>
+    <t>mthu rtsal</t>
+  </si>
+  <si>
+    <t>mthu+en</t>
+  </si>
+  <si>
+    <t>mthu chen</t>
+  </si>
+  <si>
+    <t>mthu+obs</t>
+  </si>
+  <si>
+    <t>mthu stobs</t>
+  </si>
+  <si>
+    <t>mthu+ong</t>
+  </si>
+  <si>
+    <t>mthun mong</t>
+  </si>
+  <si>
+    <t>mtho+eng</t>
+  </si>
+  <si>
+    <t>mthe bong</t>
+  </si>
+  <si>
+    <t>mtho+i</t>
+  </si>
+  <si>
+    <t>mtho ris</t>
+  </si>
+  <si>
+    <t>mth+ro+is</t>
+  </si>
+  <si>
+    <t>dm^an</t>
+  </si>
+  <si>
+    <t>dam can</t>
+  </si>
+  <si>
+    <t>dm^ig</t>
+  </si>
+  <si>
+    <t>dam tshig</t>
+  </si>
+  <si>
+    <t>dm^as</t>
+  </si>
+  <si>
+    <t>dam rdzas</t>
+  </si>
+  <si>
+    <t>dl+yor</t>
+  </si>
+  <si>
+    <t>dal 'byor</t>
+  </si>
+  <si>
+    <t>dug+nga</t>
+  </si>
+  <si>
+    <t>dug lnga</t>
+  </si>
+  <si>
+    <t>dugsum</t>
+  </si>
+  <si>
+    <t>dug gsum</t>
+  </si>
+  <si>
+    <t>dru+orad</t>
+  </si>
+  <si>
+    <t>dur khrod</t>
+  </si>
+  <si>
+    <t>dru+od</t>
+  </si>
+  <si>
+    <t>du+osad</t>
+  </si>
+  <si>
+    <t>dus chod</t>
+  </si>
+  <si>
+    <t>du+od</t>
+  </si>
+  <si>
+    <t>dusu</t>
+  </si>
+  <si>
+    <t>dus su</t>
+  </si>
+  <si>
+    <t>dusum</t>
+  </si>
+  <si>
+    <t>dus gsum</t>
+  </si>
+  <si>
+    <t>debzhindi</t>
+  </si>
+  <si>
+    <t>de bzhin nyid</t>
+  </si>
+  <si>
+    <t>debzhinges</t>
+  </si>
+  <si>
+    <t>de bzhin gshegs</t>
+  </si>
+  <si>
+    <t>deniTe</t>
+  </si>
+  <si>
+    <t>de dag</t>
+  </si>
+  <si>
+    <t>don+rub</t>
+  </si>
+  <si>
+    <t>don grub</t>
+  </si>
+  <si>
+    <t>donm</t>
+  </si>
+  <si>
+    <t>don dam</t>
+  </si>
+  <si>
+    <t>daund</t>
+  </si>
+  <si>
+    <t>don yod</t>
+  </si>
+  <si>
+    <t>dn+ru+audab</t>
+  </si>
+  <si>
+    <t>don yod grub</t>
+  </si>
+  <si>
+    <t>drog</t>
+  </si>
+  <si>
+    <t>drag po</t>
+  </si>
+  <si>
+    <t>drog^al</t>
+  </si>
+  <si>
+    <t>drag po rtsal</t>
+  </si>
+  <si>
+    <t>drong</t>
+  </si>
+  <si>
+    <t>drang srong</t>
+  </si>
+  <si>
+    <t>dri med</t>
+  </si>
+  <si>
+    <t>dri+ed</t>
+  </si>
+  <si>
+    <t>dri+en</t>
+  </si>
+  <si>
+    <t>drin chen</t>
+  </si>
+  <si>
+    <t>drilu</t>
+  </si>
+  <si>
+    <t>dril bu</t>
+  </si>
+  <si>
+    <t>dru+iq</t>
+  </si>
+  <si>
+    <t>drung yig</t>
+  </si>
+  <si>
+    <t>gdamg</t>
+  </si>
+  <si>
+    <t>gdam ngag</t>
+  </si>
+  <si>
+    <t>gd^ub</t>
+  </si>
+  <si>
+    <t>gdung rten</t>
+  </si>
+  <si>
+    <t>gdug rtsub</t>
+  </si>
+  <si>
+    <t>gdu+en</t>
+  </si>
+  <si>
+    <t>gd^u+in</t>
+  </si>
+  <si>
+    <t>gdung 'dzin</t>
+  </si>
+  <si>
+    <t>gdubu</t>
+  </si>
+  <si>
+    <t>gdub bu</t>
+  </si>
+  <si>
+    <t>gdul+ya</t>
+  </si>
+  <si>
+    <t>gdul bya</t>
+  </si>
+  <si>
+    <t>bdagis</t>
+  </si>
+  <si>
+    <t>bdag gis</t>
+  </si>
+  <si>
+    <t>bdagg</t>
+  </si>
+  <si>
+    <t>bdag cag</t>
+  </si>
+  <si>
+    <t>bdagid</t>
+  </si>
+  <si>
+    <t>bdag nyid</t>
+  </si>
+  <si>
+    <t>bdid</t>
+  </si>
+  <si>
+    <t>bdaged</t>
+  </si>
+  <si>
+    <t>bdag med</t>
+  </si>
+  <si>
+    <t>bdag^id</t>
+  </si>
+  <si>
+    <t>bdag 'dzin</t>
+  </si>
+  <si>
+    <t>bdu+os</t>
+  </si>
+  <si>
+    <t>bdug spos</t>
+  </si>
+  <si>
+    <t>bdudl</t>
+  </si>
+  <si>
+    <t>bdud 'dul</t>
+  </si>
+  <si>
+    <t>bd^u+id</t>
+  </si>
+  <si>
+    <t>bdud rtsi</t>
+  </si>
+  <si>
+    <t>bdu+en</t>
+  </si>
+  <si>
+    <t>bdun te</t>
+  </si>
+  <si>
+    <t>bde+en</t>
+  </si>
+  <si>
+    <t>bde chen</t>
+  </si>
+  <si>
+    <t>bde+egs</t>
+  </si>
+  <si>
+    <t>bde gshegs</t>
+  </si>
+  <si>
+    <t>bdegs</t>
+  </si>
+  <si>
+    <t>bde+erags</t>
+  </si>
+  <si>
+    <t>bde bar gshegs</t>
+  </si>
+  <si>
+    <t>'du+es</t>
+  </si>
+  <si>
+    <t>'du shes</t>
+  </si>
+  <si>
+    <t>'du+ed</t>
+  </si>
+  <si>
+    <t>'du byed</t>
+  </si>
+  <si>
+    <t>'drul</t>
+  </si>
+  <si>
+    <t>'du 'bral</t>
+  </si>
+  <si>
+    <t>'d^u+i</t>
+  </si>
+  <si>
+    <t>'du 'dzi</t>
+  </si>
+  <si>
+    <t>'dodgs</t>
+  </si>
+  <si>
+    <t>'dod chags</t>
+  </si>
+  <si>
+    <t>'daudn</t>
+  </si>
+  <si>
+    <t>'dod yon</t>
+  </si>
+  <si>
+    <t>rdo+e</t>
+  </si>
+  <si>
+    <t>rdo rje</t>
+  </si>
+  <si>
+    <t>rdo+eng</t>
+  </si>
+  <si>
+    <t>rdo rje 'chang</t>
+  </si>
+  <si>
+    <t>rdo+e+edaMs</t>
+  </si>
+  <si>
+    <t>rdo rje sems dpa'</t>
+  </si>
+  <si>
+    <t>s+d+ribi</t>
+  </si>
+  <si>
+    <t>sdig sgrib</t>
+  </si>
+  <si>
+    <t>sdin</t>
+  </si>
+  <si>
+    <t>sdig srin</t>
+  </si>
+  <si>
+    <t>sdul</t>
+  </si>
+  <si>
+    <t>sdug bsngal</t>
+  </si>
+  <si>
+    <t>bsdul</t>
+  </si>
+  <si>
+    <t>s+d+yed</t>
+  </si>
+  <si>
+    <t>sde brgyad</t>
+  </si>
+  <si>
+    <t>sdaung</t>
+  </si>
+  <si>
+    <t>sdong po</t>
+  </si>
+  <si>
+    <t>s+d+raugs</t>
+  </si>
+  <si>
+    <t>sdong grogs</t>
+  </si>
+  <si>
+    <t>sdong grogs mdzad</t>
+  </si>
+  <si>
+    <t>s+d+raugs^ad</t>
+  </si>
+  <si>
+    <t>bsd^u+ib</t>
+  </si>
+  <si>
+    <t>bsdigs 'dzub</t>
+  </si>
+  <si>
+    <t>sd^u+ib</t>
+  </si>
+  <si>
+    <t>sdigs mdzub</t>
+  </si>
+  <si>
+    <t>bsd^u+ibmad</t>
+  </si>
+  <si>
+    <t>bsdugs mdzub mdzad</t>
+  </si>
+  <si>
+    <t>nog</t>
+  </si>
+  <si>
+    <t>nag po</t>
+  </si>
+  <si>
+    <t>nogam</t>
+  </si>
+  <si>
+    <t>nag mo</t>
+  </si>
+  <si>
+    <t>naMkha'</t>
+  </si>
+  <si>
+    <t>nam mkha'</t>
+  </si>
+  <si>
+    <t>nubya</t>
+  </si>
+  <si>
+    <t>nub bya</t>
+  </si>
+  <si>
+    <t>nubyogs</t>
+  </si>
+  <si>
+    <t>nub phyogs</t>
+  </si>
+  <si>
+    <t>nu+ogs</t>
+  </si>
+  <si>
+    <t>nu+or</t>
+  </si>
+  <si>
+    <t>nor bu</t>
+  </si>
+  <si>
+    <t>gn+caMgs</t>
+  </si>
+  <si>
+    <t>gnam lcags</t>
+  </si>
+  <si>
+    <t>n+yas+yi</t>
+  </si>
+  <si>
+    <t>gnas kyis</t>
+  </si>
+  <si>
+    <t>gn+lugs</t>
+  </si>
+  <si>
+    <t>gnas lugs</t>
+  </si>
+  <si>
+    <t>n+yasu</t>
+  </si>
+  <si>
+    <t>gnas su</t>
+  </si>
+  <si>
+    <t>gn+yo+ed</t>
+  </si>
+  <si>
+    <t>gnod med</t>
+  </si>
+  <si>
+    <t>gn+yo+idn</t>
+  </si>
+  <si>
+    <t>gnod sbyin</t>
+  </si>
+  <si>
+    <t>gn+yo+idnago</t>
+  </si>
+  <si>
+    <t>gnod sbyin bdag po</t>
+  </si>
+  <si>
+    <t>rnarmang^ad</t>
+  </si>
+  <si>
+    <t>rnam par snang mdzad</t>
+  </si>
+  <si>
+    <t>rnamang</t>
+  </si>
+  <si>
+    <t>rnam snang</t>
+  </si>
+  <si>
+    <t>rnamg</t>
+  </si>
+  <si>
+    <t>rnam dag</t>
+  </si>
+  <si>
+    <t>rnamrag</t>
+  </si>
+  <si>
+    <t>rnam par dag</t>
+  </si>
+  <si>
+    <t>rnomg</t>
+  </si>
+  <si>
+    <t>rnam rtog</t>
+  </si>
+  <si>
+    <t>rnems</t>
+  </si>
+  <si>
+    <t>rnam sehs</t>
+  </si>
+  <si>
+    <t>r+n+yeMn</t>
+  </si>
+  <si>
+    <t>rnam mkhyen</t>
+  </si>
+  <si>
+    <t>r+n+yamal</t>
+  </si>
+  <si>
+    <t>rnam rgyal</t>
+  </si>
+  <si>
+    <t>rnaMs</t>
+  </si>
+  <si>
+    <t>rnam sras</t>
+  </si>
+  <si>
+    <t>r+n+roMs</t>
+  </si>
+  <si>
+    <t>rnam thos sras</t>
+  </si>
+  <si>
+    <t>r+n+raMngs</t>
+  </si>
+  <si>
+    <t>rnam grangs</t>
+  </si>
+  <si>
+    <t>rnaMngs</t>
+  </si>
+  <si>
+    <t>r+n+yor</t>
+  </si>
+  <si>
+    <t>rnal 'byor</t>
+  </si>
+  <si>
+    <t>rnor</t>
+  </si>
+  <si>
+    <t>snang mun</t>
+  </si>
+  <si>
+    <t>snang ba dang mun pa</t>
+  </si>
+  <si>
+    <t>snag s+m+yug</t>
+  </si>
+  <si>
+    <t>snag tsha dang s+m+yug gu</t>
+  </si>
+  <si>
+    <t>snag shog</t>
+  </si>
+  <si>
+    <t>snag tsha dang shog bu</t>
+  </si>
+  <si>
+    <t>snog^as</t>
+  </si>
+  <si>
+    <t>sna tshogs</t>
+  </si>
+  <si>
+    <t>s+n+ringd</t>
+  </si>
+  <si>
+    <t>snang srid</t>
+  </si>
+  <si>
+    <t>snu+od</t>
+  </si>
+  <si>
+    <t>snod bcud</t>
+  </si>
+  <si>
+    <t>dpaged</t>
+  </si>
+  <si>
+    <t>dpag med</t>
+  </si>
+  <si>
+    <t>dpoM'</t>
+  </si>
+  <si>
+    <t>dpa' mo</t>
+  </si>
+  <si>
+    <t>dpalen</t>
+  </si>
+  <si>
+    <t>dpal chen</t>
+  </si>
+  <si>
+    <t>dpaldan</t>
+  </si>
+  <si>
+    <t>dpal ldan</t>
+  </si>
+  <si>
+    <t>dpal+reng</t>
+  </si>
+  <si>
+    <t>dpal 'phreng</t>
+  </si>
+  <si>
+    <t>dpal+yor</t>
+  </si>
+  <si>
+    <t>dpal 'byor</t>
+  </si>
+  <si>
+    <t>dpu+ogs</t>
+  </si>
+  <si>
+    <t>dpung chogs</t>
+  </si>
+  <si>
+    <t>dpaun</t>
+  </si>
+  <si>
+    <t>dpon po</t>
+  </si>
+  <si>
+    <t>dpoMn</t>
   </si>
 </sst>
 </file>
@@ -1761,10 +2805,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63183466-1C31-42C4-8760-1C1C7E512D37}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="K225" sqref="K225"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="A439" sqref="A439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,6 +4813,1510 @@
         <v>457</v>
       </c>
     </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>458</v>
+      </c>
+      <c r="B251" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>460</v>
+      </c>
+      <c r="B252" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>461</v>
+      </c>
+      <c r="B253" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>463</v>
+      </c>
+      <c r="B254" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>465</v>
+      </c>
+      <c r="B255" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>467</v>
+      </c>
+      <c r="B256" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>465</v>
+      </c>
+      <c r="B257" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B258" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>472</v>
+      </c>
+      <c r="B259" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>474</v>
+      </c>
+      <c r="B260" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>476</v>
+      </c>
+      <c r="B261" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>478</v>
+      </c>
+      <c r="B262" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>480</v>
+      </c>
+      <c r="B263" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>482</v>
+      </c>
+      <c r="B264" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>484</v>
+      </c>
+      <c r="B265" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>486</v>
+      </c>
+      <c r="B266" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>488</v>
+      </c>
+      <c r="B267" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>490</v>
+      </c>
+      <c r="B268" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>492</v>
+      </c>
+      <c r="B269" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>494</v>
+      </c>
+      <c r="B270" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>495</v>
+      </c>
+      <c r="B271" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>497</v>
+      </c>
+      <c r="B272" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>499</v>
+      </c>
+      <c r="B273" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>501</v>
+      </c>
+      <c r="B274" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>503</v>
+      </c>
+      <c r="B275" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>505</v>
+      </c>
+      <c r="B276" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>507</v>
+      </c>
+      <c r="B277" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>509</v>
+      </c>
+      <c r="B278" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>511</v>
+      </c>
+      <c r="B279" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>513</v>
+      </c>
+      <c r="B280" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>515</v>
+      </c>
+      <c r="B281" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>517</v>
+      </c>
+      <c r="B282" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>518</v>
+      </c>
+      <c r="B283" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>520</v>
+      </c>
+      <c r="B284" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>521</v>
+      </c>
+      <c r="B285" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>523</v>
+      </c>
+      <c r="B286" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>524</v>
+      </c>
+      <c r="B287" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>526</v>
+      </c>
+      <c r="B288" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>528</v>
+      </c>
+      <c r="B289" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>529</v>
+      </c>
+      <c r="B290" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>531</v>
+      </c>
+      <c r="B291" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>533</v>
+      </c>
+      <c r="B292" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>535</v>
+      </c>
+      <c r="B293" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>537</v>
+      </c>
+      <c r="B294" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>539</v>
+      </c>
+      <c r="B295" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>540</v>
+      </c>
+      <c r="B296" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>542</v>
+      </c>
+      <c r="B297" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>544</v>
+      </c>
+      <c r="B298" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>545</v>
+      </c>
+      <c r="B299" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>547</v>
+      </c>
+      <c r="B300" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>549</v>
+      </c>
+      <c r="B301" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>551</v>
+      </c>
+      <c r="B302" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>553</v>
+      </c>
+      <c r="B303" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>554</v>
+      </c>
+      <c r="B304" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>556</v>
+      </c>
+      <c r="B305" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>558</v>
+      </c>
+      <c r="B306" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>560</v>
+      </c>
+      <c r="B307" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>562</v>
+      </c>
+      <c r="B308" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>564</v>
+      </c>
+      <c r="B309" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>566</v>
+      </c>
+      <c r="B310" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>567</v>
+      </c>
+      <c r="B311" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>569</v>
+      </c>
+      <c r="B312" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>571</v>
+      </c>
+      <c r="B313" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>573</v>
+      </c>
+      <c r="B314" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>575</v>
+      </c>
+      <c r="B315" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>576</v>
+      </c>
+      <c r="B316" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>578</v>
+      </c>
+      <c r="B317" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>580</v>
+      </c>
+      <c r="B318" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>582</v>
+      </c>
+      <c r="B319" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>583</v>
+      </c>
+      <c r="B320" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>585</v>
+      </c>
+      <c r="B321" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>587</v>
+      </c>
+      <c r="B322" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>589</v>
+      </c>
+      <c r="B323" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>591</v>
+      </c>
+      <c r="B324" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>593</v>
+      </c>
+      <c r="B325" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>595</v>
+      </c>
+      <c r="B326" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>597</v>
+      </c>
+      <c r="B327" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>599</v>
+      </c>
+      <c r="B328" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>600</v>
+      </c>
+      <c r="B329" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>602</v>
+      </c>
+      <c r="B330" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>604</v>
+      </c>
+      <c r="B331" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>606</v>
+      </c>
+      <c r="B332" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>608</v>
+      </c>
+      <c r="B333" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>610</v>
+      </c>
+      <c r="B334" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>612</v>
+      </c>
+      <c r="B335" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>614</v>
+      </c>
+      <c r="B336" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>615</v>
+      </c>
+      <c r="B337" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>617</v>
+      </c>
+      <c r="B338" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>618</v>
+      </c>
+      <c r="B339" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>620</v>
+      </c>
+      <c r="B340" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>622</v>
+      </c>
+      <c r="B341" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>624</v>
+      </c>
+      <c r="B342" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>626</v>
+      </c>
+      <c r="B343" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>206</v>
+      </c>
+      <c r="B344" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>628</v>
+      </c>
+      <c r="B345" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>630</v>
+      </c>
+      <c r="B346" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>632</v>
+      </c>
+      <c r="B347" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>634</v>
+      </c>
+      <c r="B348" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>636</v>
+      </c>
+      <c r="B349" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>638</v>
+      </c>
+      <c r="B350" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>640</v>
+      </c>
+      <c r="B351" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>643</v>
+      </c>
+      <c r="B352" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>644</v>
+      </c>
+      <c r="B353" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>646</v>
+      </c>
+      <c r="B354" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>648</v>
+      </c>
+      <c r="B355" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>650</v>
+      </c>
+      <c r="B356" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>652</v>
+      </c>
+      <c r="B357" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>655</v>
+      </c>
+      <c r="B358" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>656</v>
+      </c>
+      <c r="B359" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>658</v>
+      </c>
+      <c r="B360" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>660</v>
+      </c>
+      <c r="B361" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>662</v>
+      </c>
+      <c r="B362" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>664</v>
+      </c>
+      <c r="B363" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>666</v>
+      </c>
+      <c r="B364" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>668</v>
+      </c>
+      <c r="B365" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>669</v>
+      </c>
+      <c r="B366" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>671</v>
+      </c>
+      <c r="B367" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>673</v>
+      </c>
+      <c r="B368" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>675</v>
+      </c>
+      <c r="B369" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>677</v>
+      </c>
+      <c r="B370" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>679</v>
+      </c>
+      <c r="B371" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>681</v>
+      </c>
+      <c r="B372" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>683</v>
+      </c>
+      <c r="B373" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>685</v>
+      </c>
+      <c r="B374" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>686</v>
+      </c>
+      <c r="B375" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>700</v>
+      </c>
+      <c r="B382" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>702</v>
+      </c>
+      <c r="B383" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>704</v>
+      </c>
+      <c r="B384" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>706</v>
+      </c>
+      <c r="B385" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>708</v>
+      </c>
+      <c r="B386" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>710</v>
+      </c>
+      <c r="B387" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>712</v>
+      </c>
+      <c r="B388" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>713</v>
+      </c>
+      <c r="B389" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>715</v>
+      </c>
+      <c r="B390" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>717</v>
+      </c>
+      <c r="B391" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>720</v>
+      </c>
+      <c r="B392" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>721</v>
+      </c>
+      <c r="B393" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>723</v>
+      </c>
+      <c r="B394" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>725</v>
+      </c>
+      <c r="B395" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>727</v>
+      </c>
+      <c r="B396" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>729</v>
+      </c>
+      <c r="B397" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>731</v>
+      </c>
+      <c r="B398" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>733</v>
+      </c>
+      <c r="B399" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>735</v>
+      </c>
+      <c r="B400" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>737</v>
+      </c>
+      <c r="B401" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>738</v>
+      </c>
+      <c r="B402" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>740</v>
+      </c>
+      <c r="B403" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>742</v>
+      </c>
+      <c r="B404" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>744</v>
+      </c>
+      <c r="B405" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>746</v>
+      </c>
+      <c r="B406" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>748</v>
+      </c>
+      <c r="B407" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>750</v>
+      </c>
+      <c r="B408" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>752</v>
+      </c>
+      <c r="B409" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>754</v>
+      </c>
+      <c r="B410" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>756</v>
+      </c>
+      <c r="B411" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>758</v>
+      </c>
+      <c r="B412" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>760</v>
+      </c>
+      <c r="B413" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>762</v>
+      </c>
+      <c r="B414" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>764</v>
+      </c>
+      <c r="B415" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>766</v>
+      </c>
+      <c r="B416" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>768</v>
+      </c>
+      <c r="B417" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>770</v>
+      </c>
+      <c r="B418" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>772</v>
+      </c>
+      <c r="B419" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>774</v>
+      </c>
+      <c r="B420" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>776</v>
+      </c>
+      <c r="B421" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>777</v>
+      </c>
+      <c r="B422" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>779</v>
+      </c>
+      <c r="B423" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>780</v>
+      </c>
+      <c r="B424" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>782</v>
+      </c>
+      <c r="B425" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>784</v>
+      </c>
+      <c r="B426" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>786</v>
+      </c>
+      <c r="B427" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>788</v>
+      </c>
+      <c r="B428" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>790</v>
+      </c>
+      <c r="B429" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>792</v>
+      </c>
+      <c r="B430" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>794</v>
+      </c>
+      <c r="B431" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>796</v>
+      </c>
+      <c r="B432" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>798</v>
+      </c>
+      <c r="B433" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>800</v>
+      </c>
+      <c r="B434" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>802</v>
+      </c>
+      <c r="B435" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>804</v>
+      </c>
+      <c r="B436" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>806</v>
+      </c>
+      <c r="B437" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>808</v>
+      </c>
+      <c r="B438" t="s">
+        <v>807</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zzz in progress/abbBacot.xlsx
+++ b/zzz in progress/abbBacot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\GitHub\rKTs\zzz in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A34502-35AA-4C1F-8280-0849D517E0D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152813E1-E3F4-4095-9525-17B247EE2C9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7EA4215D-28D0-4499-B7AE-49EC809FD74F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="869">
   <si>
     <t>ku+onung</t>
   </si>
@@ -2452,6 +2452,186 @@
   </si>
   <si>
     <t>dpoMn</t>
+  </si>
+  <si>
+    <t>dpon slob</t>
+  </si>
+  <si>
+    <t>dp+lon</t>
+  </si>
+  <si>
+    <t>dopanog</t>
+  </si>
+  <si>
+    <t>dpon g.yog</t>
+  </si>
+  <si>
+    <t>dpaug</t>
+  </si>
+  <si>
+    <t>spru+i</t>
+  </si>
+  <si>
+    <t>spu gri</t>
+  </si>
+  <si>
+    <t>spyan+ngar</t>
+  </si>
+  <si>
+    <t>spyan drangs</t>
+  </si>
+  <si>
+    <t>spyan+rangs</t>
+  </si>
+  <si>
+    <t>s+p+y+r^ igs</t>
+  </si>
+  <si>
+    <t>spyan ras gzigs</t>
+  </si>
+  <si>
+    <t>spyinags</t>
+  </si>
+  <si>
+    <t>spyan gzigs</t>
+  </si>
+  <si>
+    <t>spyo+in</t>
+  </si>
+  <si>
+    <t>spyi don</t>
+  </si>
+  <si>
+    <t>spyo+ir</t>
+  </si>
+  <si>
+    <t>spyi bor</t>
+  </si>
+  <si>
+    <t>spyu+ig</t>
+  </si>
+  <si>
+    <t>spyi gtsug</t>
+  </si>
+  <si>
+    <t>sprol</t>
+  </si>
+  <si>
+    <t>spros bral</t>
+  </si>
+  <si>
+    <t>pha spad</t>
+  </si>
+  <si>
+    <t>pha dang bu</t>
+  </si>
+  <si>
+    <t>phrol</t>
+  </si>
+  <si>
+    <t>pha rol</t>
+  </si>
+  <si>
+    <t>phu+ong</t>
+  </si>
+  <si>
+    <t>phung po</t>
+  </si>
+  <si>
+    <t>ph^u+ogs</t>
+  </si>
+  <si>
+    <t>phun tshogs</t>
+  </si>
+  <si>
+    <t>phu+u+oMgs</t>
+  </si>
+  <si>
+    <t>phun gsum tshogs</t>
+  </si>
+  <si>
+    <t>phyu+od</t>
+  </si>
+  <si>
+    <t>pho rgyud</t>
+  </si>
+  <si>
+    <t>ph+nyo</t>
+  </si>
+  <si>
+    <t>pho nya</t>
+  </si>
+  <si>
+    <t>phrong</t>
+  </si>
+  <si>
+    <t>pho brang</t>
+  </si>
+  <si>
+    <t>phaug</t>
+  </si>
+  <si>
+    <t>pho rog</t>
+  </si>
+  <si>
+    <t>phya rgyo+en</t>
+  </si>
+  <si>
+    <t>phyag rgya chen po</t>
+  </si>
+  <si>
+    <t>phyag^al</t>
+  </si>
+  <si>
+    <t>phyag tshal</t>
+  </si>
+  <si>
+    <t>phy^al</t>
+  </si>
+  <si>
+    <t>phy^agol</t>
+  </si>
+  <si>
+    <t>phyag tshal lo</t>
+  </si>
+  <si>
+    <t>phy^ol</t>
+  </si>
+  <si>
+    <t>phying sangsuM</t>
+  </si>
+  <si>
+    <t>phyi nang gsang gsum</t>
+  </si>
+  <si>
+    <t>phyind</t>
+  </si>
+  <si>
+    <t>phyin chad</t>
+  </si>
+  <si>
+    <t>phyo+id</t>
+  </si>
+  <si>
+    <t>phyi snod</t>
+  </si>
+  <si>
+    <t>ph+y+ro+il</t>
+  </si>
+  <si>
+    <t>phyi rol</t>
+  </si>
+  <si>
+    <t>phyaung</t>
+  </si>
+  <si>
+    <t>phyogs skyong</t>
+  </si>
+  <si>
+    <t>phyogs bcu'i lha la phyag 'tshal bsdod</t>
+  </si>
+  <si>
+    <t>phyu+o'i lha l+ya stod</t>
   </si>
 </sst>
 </file>
@@ -2805,10 +2985,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63183466-1C31-42C4-8760-1C1C7E512D37}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:B438"/>
+  <dimension ref="A1:B470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="A471" sqref="A471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6317,6 +6497,262 @@
         <v>807</v>
       </c>
     </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>810</v>
+      </c>
+      <c r="B439" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>811</v>
+      </c>
+      <c r="B440" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>813</v>
+      </c>
+      <c r="B441" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>814</v>
+      </c>
+      <c r="B442" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>816</v>
+      </c>
+      <c r="B443" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>818</v>
+      </c>
+      <c r="B444" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>819</v>
+      </c>
+      <c r="B445" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>821</v>
+      </c>
+      <c r="B446" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>823</v>
+      </c>
+      <c r="B447" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>825</v>
+      </c>
+      <c r="B448" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>827</v>
+      </c>
+      <c r="B449" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>829</v>
+      </c>
+      <c r="B450" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>831</v>
+      </c>
+      <c r="B451" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>833</v>
+      </c>
+      <c r="B452" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>835</v>
+      </c>
+      <c r="B453" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>837</v>
+      </c>
+      <c r="B454" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>839</v>
+      </c>
+      <c r="B455" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>841</v>
+      </c>
+      <c r="B456" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>843</v>
+      </c>
+      <c r="B457" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>845</v>
+      </c>
+      <c r="B458" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>847</v>
+      </c>
+      <c r="B459" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>849</v>
+      </c>
+      <c r="B460" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>851</v>
+      </c>
+      <c r="B461" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>853</v>
+      </c>
+      <c r="B462" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>854</v>
+      </c>
+      <c r="B463" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>856</v>
+      </c>
+      <c r="B464" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>857</v>
+      </c>
+      <c r="B465" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>859</v>
+      </c>
+      <c r="B466" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>861</v>
+      </c>
+      <c r="B467" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>863</v>
+      </c>
+      <c r="B468" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>865</v>
+      </c>
+      <c r="B469" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>868</v>
+      </c>
+      <c r="B470" t="s">
+        <v>867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zzz in progress/abbBacot.xlsx
+++ b/zzz in progress/abbBacot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\GitHub\rKTs\zzz in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152813E1-E3F4-4095-9525-17B247EE2C9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE9C66D-0F59-4726-B8B1-3179C5FE531F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7EA4215D-28D0-4499-B7AE-49EC809FD74F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="1493">
   <si>
     <t>ku+onung</t>
   </si>
@@ -2632,6 +2632,1878 @@
   </si>
   <si>
     <t>phyu+o'i lha l+ya stod</t>
+  </si>
+  <si>
+    <t>phradog</t>
+  </si>
+  <si>
+    <t>phrag dog</t>
+  </si>
+  <si>
+    <t>phris</t>
+  </si>
+  <si>
+    <t>phrin las</t>
+  </si>
+  <si>
+    <t>'phren</t>
+  </si>
+  <si>
+    <t>'phra chen</t>
+  </si>
+  <si>
+    <t>bgags</t>
+  </si>
+  <si>
+    <t>bag chags</t>
+  </si>
+  <si>
+    <t>barad</t>
+  </si>
+  <si>
+    <t>bar chad</t>
+  </si>
+  <si>
+    <t>bu+edaM</t>
+  </si>
+  <si>
+    <t>bu med</t>
+  </si>
+  <si>
+    <t>b^u</t>
+  </si>
+  <si>
+    <t>bu tsha</t>
+  </si>
+  <si>
+    <t>bu+oM</t>
+  </si>
+  <si>
+    <t>bu  mo</t>
+  </si>
+  <si>
+    <t>bu+ing</t>
+  </si>
+  <si>
+    <t>bud shing</t>
+  </si>
+  <si>
+    <t>bu+ed</t>
+  </si>
+  <si>
+    <t>bud med</t>
+  </si>
+  <si>
+    <t>bu+ong</t>
+  </si>
+  <si>
+    <t>bong bu</t>
+  </si>
+  <si>
+    <t>baun</t>
+  </si>
+  <si>
+    <t>bon po</t>
+  </si>
+  <si>
+    <t>b+y+rog</t>
+  </si>
+  <si>
+    <t>bya rog</t>
+  </si>
+  <si>
+    <t>by^ogs</t>
+  </si>
+  <si>
+    <t>bya tshogs</t>
+  </si>
+  <si>
+    <t>byangar</t>
+  </si>
+  <si>
+    <t>byang shar</t>
+  </si>
+  <si>
+    <t>byongags</t>
+  </si>
+  <si>
+    <t>byang phyogs</t>
+  </si>
+  <si>
+    <t>byogs</t>
+  </si>
+  <si>
+    <t>byub</t>
+  </si>
+  <si>
+    <t>byang chub</t>
+  </si>
+  <si>
+    <t>byang chubsdaM'</t>
+  </si>
+  <si>
+    <t>byang chub sems dpa'</t>
+  </si>
+  <si>
+    <t>byin+libs</t>
+  </si>
+  <si>
+    <t>byin gyis rlabs</t>
+  </si>
+  <si>
+    <t>byinibs</t>
+  </si>
+  <si>
+    <t>byin+labs</t>
+  </si>
+  <si>
+    <t>byin rlabs</t>
+  </si>
+  <si>
+    <t>byinblas</t>
+  </si>
+  <si>
+    <t>byin+libs tu+ol</t>
+  </si>
+  <si>
+    <t>byin gyis rlabs tu gsol</t>
+  </si>
+  <si>
+    <t>b+y+reg</t>
+  </si>
+  <si>
+    <t>bye brag</t>
+  </si>
+  <si>
+    <t>breg</t>
+  </si>
+  <si>
+    <t>byaulang</t>
+  </si>
+  <si>
+    <t>byol song</t>
+  </si>
+  <si>
+    <t>brem</t>
+  </si>
+  <si>
+    <t>bram ze</t>
+  </si>
+  <si>
+    <t>bris par</t>
+  </si>
+  <si>
+    <t>bris pa dang par ma</t>
+  </si>
+  <si>
+    <t>blaM</t>
+  </si>
+  <si>
+    <t>bla ma</t>
+  </si>
+  <si>
+    <t>bla slob</t>
+  </si>
+  <si>
+    <t>bla ma dang slob pa</t>
+  </si>
+  <si>
+    <t>blidaM</t>
+  </si>
+  <si>
+    <t>bla ma yi dam</t>
+  </si>
+  <si>
+    <t>bledaM</t>
+  </si>
+  <si>
+    <t>bla med</t>
+  </si>
+  <si>
+    <t>blas</t>
+  </si>
+  <si>
+    <t>bla mas</t>
+  </si>
+  <si>
+    <t>blu+on</t>
+  </si>
+  <si>
+    <t>blun po</t>
+  </si>
+  <si>
+    <t>blaus</t>
+  </si>
+  <si>
+    <t>blo gros</t>
+  </si>
+  <si>
+    <t>blos</t>
+  </si>
+  <si>
+    <t>blo mthun</t>
+  </si>
+  <si>
+    <t>blu+or</t>
+  </si>
+  <si>
+    <t>blo bur</t>
+  </si>
+  <si>
+    <t>blon</t>
+  </si>
+  <si>
+    <t>blo dman</t>
+  </si>
+  <si>
+    <t>blaun</t>
+  </si>
+  <si>
+    <t>blon po</t>
+  </si>
+  <si>
+    <t>blon 'bangs</t>
+  </si>
+  <si>
+    <t>blon po dang 'bangs 'khor</t>
+  </si>
+  <si>
+    <t>dbraMg</t>
+  </si>
+  <si>
+    <t>dbang drag</t>
+  </si>
+  <si>
+    <t>dbngen</t>
+  </si>
+  <si>
+    <t>dbang chen</t>
+  </si>
+  <si>
+    <t>dbyuMg</t>
+  </si>
+  <si>
+    <t>dbang phyug</t>
+  </si>
+  <si>
+    <t>dbyug</t>
+  </si>
+  <si>
+    <t>dbuMr</t>
+  </si>
+  <si>
+    <t>dbang bskur</t>
+  </si>
+  <si>
+    <t>dbu+od</t>
+  </si>
+  <si>
+    <t>dbu thod</t>
+  </si>
+  <si>
+    <t>sbu+igaM</t>
+  </si>
+  <si>
+    <t>dbyings phyug</t>
+  </si>
+  <si>
+    <t>dbyaird</t>
+  </si>
+  <si>
+    <t>dbyer med</t>
+  </si>
+  <si>
+    <t>'bruMg</t>
+  </si>
+  <si>
+    <t>'byu+ong</t>
+  </si>
+  <si>
+    <t>'byungs</t>
+  </si>
+  <si>
+    <t>'bum phrag</t>
+  </si>
+  <si>
+    <t>'byung po</t>
+  </si>
+  <si>
+    <t>'byung gnas</t>
+  </si>
+  <si>
+    <t>'brus</t>
+  </si>
+  <si>
+    <t>bras bu</t>
+  </si>
+  <si>
+    <t>rbaudang</t>
+  </si>
+  <si>
+    <t>rbod gtong</t>
+  </si>
+  <si>
+    <t>rbod stong</t>
+  </si>
+  <si>
+    <t>sb+b+y+rol</t>
+  </si>
+  <si>
+    <t>sbyor sgrol</t>
+  </si>
+  <si>
+    <t>sbrang rtsi</t>
+  </si>
+  <si>
+    <t>sbring^</t>
+  </si>
+  <si>
+    <t>ma smad</t>
+  </si>
+  <si>
+    <t>ma dang bu</t>
+  </si>
+  <si>
+    <t>m+lus</t>
+  </si>
+  <si>
+    <t>ma lus</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>mrig</t>
+  </si>
+  <si>
+    <t>ma rig</t>
+  </si>
+  <si>
+    <t>m+ngaMg</t>
+  </si>
+  <si>
+    <t>man ngag</t>
+  </si>
+  <si>
+    <t>mand</t>
+  </si>
+  <si>
+    <t>man chad</t>
+  </si>
+  <si>
+    <t>mer</t>
+  </si>
+  <si>
+    <t>mar me</t>
+  </si>
+  <si>
+    <t>myu+ir</t>
+  </si>
+  <si>
+    <t>mi 'gyur</t>
+  </si>
+  <si>
+    <t>myib</t>
+  </si>
+  <si>
+    <t>mi khyab</t>
+  </si>
+  <si>
+    <t>m+lu+is</t>
+  </si>
+  <si>
+    <t>mi lus</t>
+  </si>
+  <si>
+    <t>mu+is</t>
+  </si>
+  <si>
+    <t>dmir</t>
+  </si>
+  <si>
+    <t>mig dmar</t>
+  </si>
+  <si>
+    <t>m+tu+egs</t>
+  </si>
+  <si>
+    <t>mu stegs</t>
+  </si>
+  <si>
+    <t>mu+egs</t>
+  </si>
+  <si>
+    <t>mu ge</t>
+  </si>
+  <si>
+    <t>mu+en</t>
+  </si>
+  <si>
+    <t>mu men</t>
+  </si>
+  <si>
+    <t>mu+ig</t>
+  </si>
+  <si>
+    <t>mu tig</t>
+  </si>
+  <si>
+    <t>m+to+eg</t>
+  </si>
+  <si>
+    <t>me tog</t>
+  </si>
+  <si>
+    <t>mo+eg</t>
+  </si>
+  <si>
+    <t>m+lo+eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> me long</t>
+  </si>
+  <si>
+    <t>mo+eng</t>
+  </si>
+  <si>
+    <t>me long</t>
+  </si>
+  <si>
+    <t>m+he</t>
+  </si>
+  <si>
+    <t>me lha</t>
+  </si>
+  <si>
+    <t>mter</t>
+  </si>
+  <si>
+    <t>me ltar</t>
+  </si>
+  <si>
+    <t>mes dbon</t>
+  </si>
+  <si>
+    <t>mes po dang tsha bo</t>
+  </si>
+  <si>
+    <t>mu+os</t>
+  </si>
+  <si>
+    <t>mo gus</t>
+  </si>
+  <si>
+    <t>m+ru+aug</t>
+  </si>
+  <si>
+    <t>mo grus drag po</t>
+  </si>
+  <si>
+    <t>myan</t>
+  </si>
+  <si>
+    <t>mya ngan</t>
+  </si>
+  <si>
+    <t>dom^ags</t>
+  </si>
+  <si>
+    <t>dmag tshogs</t>
+  </si>
+  <si>
+    <t>dmon</t>
+  </si>
+  <si>
+    <t>dmag dpon</t>
+  </si>
+  <si>
+    <t>dmung</t>
+  </si>
+  <si>
+    <t>dmag dpung</t>
+  </si>
+  <si>
+    <t>dmor</t>
+  </si>
+  <si>
+    <t>dmar po</t>
+  </si>
+  <si>
+    <t>dmarag</t>
+  </si>
+  <si>
+    <t>dmar nag</t>
+  </si>
+  <si>
+    <t>r+m+ya</t>
+  </si>
+  <si>
+    <t>rma bya</t>
+  </si>
+  <si>
+    <t>rmiM</t>
+  </si>
+  <si>
+    <t>rmi lam</t>
+  </si>
+  <si>
+    <t>s+m+ro+il</t>
+  </si>
+  <si>
+    <t>smin grol</t>
+  </si>
+  <si>
+    <t>s+m+ru+ig</t>
+  </si>
+  <si>
+    <t>smin drug</t>
+  </si>
+  <si>
+    <t>smonaM</t>
+  </si>
+  <si>
+    <t>smon lam</t>
+  </si>
+  <si>
+    <t>ts+dan</t>
+  </si>
+  <si>
+    <t>tsan dan</t>
+  </si>
+  <si>
+    <t>gtsugor</t>
+  </si>
+  <si>
+    <t>gtsug gtor</t>
+  </si>
+  <si>
+    <t>gtsu+or</t>
+  </si>
+  <si>
+    <t>gtsugg</t>
+  </si>
+  <si>
+    <t>gtsug lag</t>
+  </si>
+  <si>
+    <t>gts+lug</t>
+  </si>
+  <si>
+    <t>gtsaur</t>
+  </si>
+  <si>
+    <t>gtso 'khor</t>
+  </si>
+  <si>
+    <t>gtso bo</t>
+  </si>
+  <si>
+    <t>r+ts+yad</t>
+  </si>
+  <si>
+    <t>rtsa brgyad</t>
+  </si>
+  <si>
+    <t>rtsang gyer</t>
+  </si>
+  <si>
+    <t>r+ts+yeMr</t>
+  </si>
+  <si>
+    <t>r+ts+yuMr</t>
+  </si>
+  <si>
+    <t>rtsang brgyur</t>
+  </si>
+  <si>
+    <t>rtsuMl</t>
+  </si>
+  <si>
+    <t>rtsang bskul</t>
+  </si>
+  <si>
+    <t>rtsang bstod</t>
+  </si>
+  <si>
+    <t>r+ts+toMd</t>
+  </si>
+  <si>
+    <t>r+tsu+ol</t>
+  </si>
+  <si>
+    <t>rtsal du gsol</t>
+  </si>
+  <si>
+    <t>r+ts+rub</t>
+  </si>
+  <si>
+    <t>rtsal sgrub</t>
+  </si>
+  <si>
+    <t>r+ts+yel</t>
+  </si>
+  <si>
+    <t>rtse rgyal</t>
+  </si>
+  <si>
+    <t>rtse rgyud</t>
+  </si>
+  <si>
+    <t>r+ts+yu+ed</t>
+  </si>
+  <si>
+    <t>r+ts+ru+eg</t>
+  </si>
+  <si>
+    <t>rtse drug</t>
+  </si>
+  <si>
+    <t>rtso+e</t>
+  </si>
+  <si>
+    <t>rtse mo</t>
+  </si>
+  <si>
+    <t>r+ts+nge</t>
+  </si>
+  <si>
+    <t>rtse lnga</t>
+  </si>
+  <si>
+    <t>r+ts+mo+em</t>
+  </si>
+  <si>
+    <t>rtse mo lnga</t>
+  </si>
+  <si>
+    <t>br+ts+ru+os</t>
+  </si>
+  <si>
+    <t>brtson 'grus</t>
+  </si>
+  <si>
+    <t>br+tsu+os</t>
+  </si>
+  <si>
+    <t>tsha zhang</t>
+  </si>
+  <si>
+    <t>tha bo dang zhang po</t>
+  </si>
+  <si>
+    <t>bcad lhug</t>
+  </si>
+  <si>
+    <t>tshig bcad dang lhug ma</t>
+  </si>
+  <si>
+    <t>tshuldan</t>
+  </si>
+  <si>
+    <t>tshul ldan</t>
+  </si>
+  <si>
+    <t>tshu+ims</t>
+  </si>
+  <si>
+    <t>tshul khrims</t>
+  </si>
+  <si>
+    <t>tshe bsod</t>
+  </si>
+  <si>
+    <t>tshe dang bsod nams</t>
+  </si>
+  <si>
+    <t>tsh+des</t>
+  </si>
+  <si>
+    <t>tshe 'das</t>
+  </si>
+  <si>
+    <t>tsh+ro+eg</t>
+  </si>
+  <si>
+    <t>tshe srog</t>
+  </si>
+  <si>
+    <t>bsag sbyang</t>
+  </si>
+  <si>
+    <t>tshogs bsag pa dang sdig pa sbyang ba</t>
+  </si>
+  <si>
+    <t>tshu+om</t>
+  </si>
+  <si>
+    <t>tshom bu</t>
+  </si>
+  <si>
+    <t>mtshid</t>
+  </si>
+  <si>
+    <t>mtshan nyid</t>
+  </si>
+  <si>
+    <t>mtsh+dan</t>
+  </si>
+  <si>
+    <t>mtshan ldan</t>
+  </si>
+  <si>
+    <t>mtsh+yamsor</t>
+  </si>
+  <si>
+    <t>mtshams sbyor</t>
+  </si>
+  <si>
+    <t>mtsh+yomr</t>
+  </si>
+  <si>
+    <t>mtshamd</t>
+  </si>
+  <si>
+    <t>mtshams brgyad</t>
+  </si>
+  <si>
+    <t>'tshums</t>
+  </si>
+  <si>
+    <t>mtshams zhus</t>
+  </si>
+  <si>
+    <t>mtsh+rumb</t>
+  </si>
+  <si>
+    <t>mtshams sgrub</t>
+  </si>
+  <si>
+    <t>mtsh+tsamd</t>
+  </si>
+  <si>
+    <t>mtshams bcad</t>
+  </si>
+  <si>
+    <t>mtsh+yo+es</t>
+  </si>
+  <si>
+    <t>mtsho skyes</t>
+  </si>
+  <si>
+    <t>mtsh+yol</t>
+  </si>
+  <si>
+    <t>mtsho rgyal</t>
+  </si>
+  <si>
+    <t>mtsh+lo+ing</t>
+  </si>
+  <si>
+    <t>mtsho gling</t>
+  </si>
+  <si>
+    <t>'tshemd</t>
+  </si>
+  <si>
+    <t>'tsh+yo+ed</t>
+  </si>
+  <si>
+    <t>'tshams med</t>
+  </si>
+  <si>
+    <t>'tshe skyong</t>
+  </si>
+  <si>
+    <t>m^ad</t>
+  </si>
+  <si>
+    <t>mdzad</t>
+  </si>
+  <si>
+    <t>m^odni</t>
+  </si>
+  <si>
+    <t>mdzod 'dzin</t>
+  </si>
+  <si>
+    <t>'dz+laming</t>
+  </si>
+  <si>
+    <t>'dzam gling</t>
+  </si>
+  <si>
+    <t>'^in</t>
+  </si>
+  <si>
+    <t>'dzin</t>
+  </si>
+  <si>
+    <t>rdzu+es</t>
+  </si>
+  <si>
+    <t>rdzus skyes</t>
+  </si>
+  <si>
+    <t>rdzu+ul</t>
+  </si>
+  <si>
+    <t>rdzu 'phrul</t>
+  </si>
+  <si>
+    <t>r+dz+rul</t>
+  </si>
+  <si>
+    <t>rdzo+egsan</t>
+  </si>
+  <si>
+    <t>rdzogs chen</t>
+  </si>
+  <si>
+    <t>zhal^as</t>
+  </si>
+  <si>
+    <t>zhal zas</t>
+  </si>
+  <si>
+    <t>zh^as</t>
+  </si>
+  <si>
+    <t>zho+i</t>
+  </si>
+  <si>
+    <t>zhi khro</t>
+  </si>
+  <si>
+    <t>zhi+engn</t>
+  </si>
+  <si>
+    <t>zhing chen</t>
+  </si>
+  <si>
+    <t>zhingmas</t>
+  </si>
+  <si>
+    <t>zhing khams</t>
+  </si>
+  <si>
+    <t>zh+yo+ing</t>
+  </si>
+  <si>
+    <t>zhing skyong</t>
+  </si>
+  <si>
+    <t>zhu+ing</t>
+  </si>
+  <si>
+    <t>zhu zhing</t>
+  </si>
+  <si>
+    <t>zhu+ig</t>
+  </si>
+  <si>
+    <t>zhu yig</t>
+  </si>
+  <si>
+    <t>zhu+en</t>
+  </si>
+  <si>
+    <t>zhu chen</t>
+  </si>
+  <si>
+    <t>zhesdang</t>
+  </si>
+  <si>
+    <t>zhe sdang</t>
+  </si>
+  <si>
+    <t>zh+deng</t>
+  </si>
+  <si>
+    <t>zhu+eso</t>
+  </si>
+  <si>
+    <t>zhe zhus so</t>
+  </si>
+  <si>
+    <t>zh+yengos</t>
+  </si>
+  <si>
+    <t>zhestaud</t>
+  </si>
+  <si>
+    <t>zhes gsung so</t>
+  </si>
+  <si>
+    <t>zhes bstod do</t>
+  </si>
+  <si>
+    <t>gzhanang</t>
+  </si>
+  <si>
+    <t>gzhan yang</t>
+  </si>
+  <si>
+    <t>zh+yas</t>
+  </si>
+  <si>
+    <t>gzhal yas</t>
+  </si>
+  <si>
+    <t>zh+yasang</t>
+  </si>
+  <si>
+    <t>gzhal yas khang</t>
+  </si>
+  <si>
+    <t>gzhu+og</t>
+  </si>
+  <si>
+    <t>gzhu thog</t>
+  </si>
+  <si>
+    <t>gzhu+oms</t>
+  </si>
+  <si>
+    <t>gzhu 'doms</t>
+  </si>
+  <si>
+    <t>gzh+yonu</t>
+  </si>
+  <si>
+    <t>gzhon nu</t>
+  </si>
+  <si>
+    <t>zh+yonu</t>
+  </si>
+  <si>
+    <t>z+yed</t>
+  </si>
+  <si>
+    <t>za byed</t>
+  </si>
+  <si>
+    <t>zagedaM</t>
+  </si>
+  <si>
+    <t>zag med</t>
+  </si>
+  <si>
+    <t>zu+uMg</t>
+  </si>
+  <si>
+    <t>zung 'jug</t>
+  </si>
+  <si>
+    <t>zlaM</t>
+  </si>
+  <si>
+    <t>zla gam</t>
+  </si>
+  <si>
+    <t>zlaM gsu+ims</t>
+  </si>
+  <si>
+    <t>zla gam gsum gyis</t>
+  </si>
+  <si>
+    <t>zl^in</t>
+  </si>
+  <si>
+    <t>zla 'dzin</t>
+  </si>
+  <si>
+    <t>zlu+oM</t>
+  </si>
+  <si>
+    <t>zlum po</t>
+  </si>
+  <si>
+    <t>gz+ji+id</t>
+  </si>
+  <si>
+    <t>gzi brjid</t>
+  </si>
+  <si>
+    <t>gzi rjid</t>
+  </si>
+  <si>
+    <t>gzu+ing</t>
+  </si>
+  <si>
+    <t>gzu shing</t>
+  </si>
+  <si>
+    <t>gzu+o</t>
+  </si>
+  <si>
+    <t>gzu bo</t>
+  </si>
+  <si>
+    <t>gzugin 'dug</t>
+  </si>
+  <si>
+    <t>gzug gin 'dug</t>
+  </si>
+  <si>
+    <t>gz+zu+er</t>
+  </si>
+  <si>
+    <t>gzug zer</t>
+  </si>
+  <si>
+    <t>gzug gzer</t>
+  </si>
+  <si>
+    <t>gzugsku</t>
+  </si>
+  <si>
+    <t>gzugs sku</t>
+  </si>
+  <si>
+    <t>gzugsdug</t>
+  </si>
+  <si>
+    <t>gzugs sdug</t>
+  </si>
+  <si>
+    <t>gzugesaMd</t>
+  </si>
+  <si>
+    <t>gzugs med</t>
+  </si>
+  <si>
+    <t>gzu+edaM</t>
+  </si>
+  <si>
+    <t>gzun</t>
+  </si>
+  <si>
+    <t>gzugs can</t>
+  </si>
+  <si>
+    <t>gzu+ing^an</t>
+  </si>
+  <si>
+    <t>gzung 'dzin</t>
+  </si>
+  <si>
+    <t>'ogin</t>
+  </si>
+  <si>
+    <t>'og min</t>
+  </si>
+  <si>
+    <t>'o+edar</t>
+  </si>
+  <si>
+    <t>'od dkar</t>
+  </si>
+  <si>
+    <t>'odkar</t>
+  </si>
+  <si>
+    <t>'odu</t>
+  </si>
+  <si>
+    <t>'od du</t>
+  </si>
+  <si>
+    <t>'odpaged</t>
+  </si>
+  <si>
+    <t>'od dpag med</t>
+  </si>
+  <si>
+    <t>'draus</t>
+  </si>
+  <si>
+    <t>'od 'phros</t>
+  </si>
+  <si>
+    <t>'o+ed^ar</t>
+  </si>
+  <si>
+    <t>'o+er</t>
+  </si>
+  <si>
+    <t>'od zer</t>
+  </si>
+  <si>
+    <t>'odal</t>
+  </si>
+  <si>
+    <t>'od gsal</t>
+  </si>
+  <si>
+    <t>y+laMg</t>
+  </si>
+  <si>
+    <t>yang dag</t>
+  </si>
+  <si>
+    <t>yangng</t>
+  </si>
+  <si>
+    <t>yang yang</t>
+  </si>
+  <si>
+    <t>yand</t>
+  </si>
+  <si>
+    <t>yan chad</t>
+  </si>
+  <si>
+    <t>yanag</t>
+  </si>
+  <si>
+    <t>yan lag</t>
+  </si>
+  <si>
+    <t>yab sras</t>
+  </si>
+  <si>
+    <t>yab dang sras</t>
+  </si>
+  <si>
+    <t>yubaM</t>
+  </si>
+  <si>
+    <t>yab yum</t>
+  </si>
+  <si>
+    <t>yi+e</t>
+  </si>
+  <si>
+    <t>yi ge</t>
+  </si>
+  <si>
+    <t>yidaM</t>
+  </si>
+  <si>
+    <t>yi dam</t>
+  </si>
+  <si>
+    <t>yidnu+iro</t>
+  </si>
+  <si>
+    <t>yid bzhin nor bu</t>
+  </si>
+  <si>
+    <t>yidin</t>
+  </si>
+  <si>
+    <t>yinm</t>
+  </si>
+  <si>
+    <t>yin nam</t>
+  </si>
+  <si>
+    <t>yu+enaM</t>
+  </si>
+  <si>
+    <t>yum chen</t>
+  </si>
+  <si>
+    <t>yais</t>
+  </si>
+  <si>
+    <t>ye shes</t>
+  </si>
+  <si>
+    <t>yaisaMda'</t>
+  </si>
+  <si>
+    <t>ye shes sems dpa'</t>
+  </si>
+  <si>
+    <t>y+yod</t>
+  </si>
+  <si>
+    <t>yo byang</t>
+  </si>
+  <si>
+    <t>yangaugs</t>
+  </si>
+  <si>
+    <t>yongs rdzogs</t>
+  </si>
+  <si>
+    <t>y+ton</t>
+  </si>
+  <si>
+    <t>yon tan</t>
+  </si>
+  <si>
+    <t>yaund</t>
+  </si>
+  <si>
+    <t>yon mchod</t>
+  </si>
+  <si>
+    <t>yonag</t>
+  </si>
+  <si>
+    <t>yon bdag</t>
+  </si>
+  <si>
+    <t>g.y+rug</t>
+  </si>
+  <si>
+    <t>g.yu 'brug</t>
+  </si>
+  <si>
+    <t>g.y+rung</t>
+  </si>
+  <si>
+    <t>g.yung drung</t>
+  </si>
+  <si>
+    <t>rongal</t>
+  </si>
+  <si>
+    <t>rang grol</t>
+  </si>
+  <si>
+    <t>rangid</t>
+  </si>
+  <si>
+    <t>rang nyid</t>
+  </si>
+  <si>
+    <t>r+r+yung</t>
+  </si>
+  <si>
+    <t>rang 'byung</t>
+  </si>
+  <si>
+    <t>ringan</t>
+  </si>
+  <si>
+    <t>rang bzhin</t>
+  </si>
+  <si>
+    <t>rangang</t>
+  </si>
+  <si>
+    <t>rang rang</t>
+  </si>
+  <si>
+    <t>rabd</t>
+  </si>
+  <si>
+    <t>rab chad</t>
+  </si>
+  <si>
+    <t>rabyams</t>
+  </si>
+  <si>
+    <t>rab 'byams</t>
+  </si>
+  <si>
+    <t>rabyor</t>
+  </si>
+  <si>
+    <t>rab 'byor</t>
+  </si>
+  <si>
+    <t>rabyung</t>
+  </si>
+  <si>
+    <t>rab byung</t>
+  </si>
+  <si>
+    <t>ral+ri</t>
+  </si>
+  <si>
+    <t>ral gri</t>
+  </si>
+  <si>
+    <t>ro+i</t>
+  </si>
+  <si>
+    <t>ri bo</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>ri rab</t>
+  </si>
+  <si>
+    <t>rigrug</t>
+  </si>
+  <si>
+    <t>rig pa drug</t>
+  </si>
+  <si>
+    <t>rig^in</t>
+  </si>
+  <si>
+    <t>rig 'dzin</t>
+  </si>
+  <si>
+    <t>rig+nga</t>
+  </si>
+  <si>
+    <t>rigs lnga</t>
+  </si>
+  <si>
+    <t>rigsum</t>
+  </si>
+  <si>
+    <t>rigs gsum</t>
+  </si>
+  <si>
+    <t>re+in</t>
+  </si>
+  <si>
+    <t>rin chen</t>
+  </si>
+  <si>
+    <t>ro+i+en</t>
+  </si>
+  <si>
+    <t>rin po che</t>
+  </si>
+  <si>
+    <t>rilu</t>
+  </si>
+  <si>
+    <t>ril bu</t>
+  </si>
+  <si>
+    <t>ru+on</t>
+  </si>
+  <si>
+    <t>ru mtshon</t>
+  </si>
+  <si>
+    <t>ru+ol</t>
+  </si>
+  <si>
+    <t>rong yul</t>
+  </si>
+  <si>
+    <t>las+yang</t>
+  </si>
+  <si>
+    <t>las byang</t>
+  </si>
+  <si>
+    <t>l+yang</t>
+  </si>
+  <si>
+    <t>lungan</t>
+  </si>
+  <si>
+    <t>lung bstan</t>
+  </si>
+  <si>
+    <t>lus ngag yid</t>
+  </si>
+  <si>
+    <t>lus+yaMdi gsum</t>
+  </si>
+  <si>
+    <t>luMgid</t>
+  </si>
+  <si>
+    <t>lu+u+idaM</t>
+  </si>
+  <si>
+    <t>ldegan</t>
+  </si>
+  <si>
+    <t>legs ldan</t>
+  </si>
+  <si>
+    <t>lden</t>
+  </si>
+  <si>
+    <t>legasbyar</t>
+  </si>
+  <si>
+    <t>legs sbyar</t>
+  </si>
+  <si>
+    <t>lenags</t>
+  </si>
+  <si>
+    <t>len chags</t>
+  </si>
+  <si>
+    <t>lo paN</t>
+  </si>
+  <si>
+    <t>lo tsA ba dang paN+Di ta</t>
+  </si>
+  <si>
+    <t>logren</t>
+  </si>
+  <si>
+    <t>log 'dren</t>
+  </si>
+  <si>
+    <t>l+ro+en</t>
+  </si>
+  <si>
+    <t>longasku</t>
+  </si>
+  <si>
+    <t>longs sku</t>
+  </si>
+  <si>
+    <t>l+yaungd</t>
+  </si>
+  <si>
+    <t>longs sbyod</t>
+  </si>
+  <si>
+    <t>longsbyod</t>
+  </si>
+  <si>
+    <t>l+yo+o+ongdags</t>
+  </si>
+  <si>
+    <t>öongs sbyod rdzogs</t>
+  </si>
+  <si>
+    <t>shrag</t>
+  </si>
+  <si>
+    <t>sha khrag</t>
+  </si>
+  <si>
+    <t>shambs</t>
+  </si>
+  <si>
+    <t>sham thabs</t>
+  </si>
+  <si>
+    <t>shargos</t>
+  </si>
+  <si>
+    <t>shar phyogs</t>
+  </si>
+  <si>
+    <t>sh+yagos</t>
+  </si>
+  <si>
+    <t>sh+hor</t>
+  </si>
+  <si>
+    <t>shar lho</t>
+  </si>
+  <si>
+    <t>shingen</t>
+  </si>
+  <si>
+    <t>shing chen</t>
+  </si>
+  <si>
+    <t>sh+tu+in</t>
+  </si>
+  <si>
+    <t>shin tu</t>
+  </si>
+  <si>
+    <t>sh+yes</t>
+  </si>
+  <si>
+    <t>shes bya</t>
+  </si>
+  <si>
+    <t>sh+reb</t>
+  </si>
+  <si>
+    <t>shes rab</t>
+  </si>
+  <si>
+    <t>sheb</t>
+  </si>
+  <si>
+    <t>gishen</t>
+  </si>
+  <si>
+    <t>gshin rje</t>
+  </si>
+  <si>
+    <t>gshi+e+end</t>
+  </si>
+  <si>
+    <t>gshin rje gshed</t>
+  </si>
+  <si>
+    <t>sh+y+i+end</t>
+  </si>
+  <si>
+    <t>bsh+rub</t>
+  </si>
+  <si>
+    <t>bshad sgrub</t>
+  </si>
+  <si>
+    <t>bsh+yain</t>
+  </si>
+  <si>
+    <t>bshes gnyen</t>
+  </si>
+  <si>
+    <t>bshain</t>
+  </si>
+  <si>
+    <t>sa paN</t>
+  </si>
+  <si>
+    <t>sa kya paN+Dita</t>
+  </si>
+  <si>
+    <t>sa gnam</t>
+  </si>
+  <si>
+    <t>sa gzhi dang gnam ga</t>
+  </si>
+  <si>
+    <t>srgyas</t>
+  </si>
+  <si>
+    <t>sangs rgyas</t>
+  </si>
+  <si>
+    <t>sng+yas</t>
+  </si>
+  <si>
+    <t>s+se</t>
+  </si>
+  <si>
+    <t>sems</t>
+  </si>
+  <si>
+    <t>sesaM</t>
+  </si>
+  <si>
+    <t>seda'aM</t>
+  </si>
+  <si>
+    <t>sems dpa'</t>
+  </si>
+  <si>
+    <t>seskyaMde</t>
+  </si>
+  <si>
+    <t>sems bskyed</t>
+  </si>
+  <si>
+    <t>senaM</t>
+  </si>
+  <si>
+    <t>sems can</t>
+  </si>
+  <si>
+    <t>senaMdaM</t>
+  </si>
+  <si>
+    <t>sems can thams cad</t>
+  </si>
+  <si>
+    <t>so+er</t>
+  </si>
+  <si>
+    <t>ser po</t>
+  </si>
+  <si>
+    <t>serag</t>
+  </si>
+  <si>
+    <t>ser nag</t>
+  </si>
+  <si>
+    <t>sner</t>
+  </si>
+  <si>
+    <t>ser sna</t>
+  </si>
+  <si>
+    <t>saub</t>
+  </si>
+  <si>
+    <t>so so ba</t>
+  </si>
+  <si>
+    <t>saur</t>
+  </si>
+  <si>
+    <t>so sor</t>
+  </si>
+  <si>
+    <t>sosaM shig</t>
+  </si>
+  <si>
+    <t>soms shig</t>
+  </si>
+  <si>
+    <t>sro+in</t>
+  </si>
+  <si>
+    <t>srin po</t>
+  </si>
+  <si>
+    <t>sro+inaM</t>
+  </si>
+  <si>
+    <t>srin mo</t>
+  </si>
+  <si>
+    <t>srungaMs</t>
+  </si>
+  <si>
+    <t>srungs ma</t>
+  </si>
+  <si>
+    <t>sraugd</t>
+  </si>
+  <si>
+    <t>srog gcod</t>
+  </si>
+  <si>
+    <t>sland</t>
+  </si>
+  <si>
+    <t>slan chad</t>
+  </si>
+  <si>
+    <t>slaud</t>
+  </si>
+  <si>
+    <t>slob 'dod</t>
+  </si>
+  <si>
+    <t>slaubn</t>
+  </si>
+  <si>
+    <t>slob dpon</t>
+  </si>
+  <si>
+    <t>slaun</t>
+  </si>
+  <si>
+    <t>slob dpon dang slob ma</t>
+  </si>
+  <si>
+    <t>slo+eb+nyar</t>
+  </si>
+  <si>
+    <t>slob gnyer</t>
+  </si>
+  <si>
+    <t>slobu</t>
+  </si>
+  <si>
+    <t>slob bu</t>
+  </si>
+  <si>
+    <t>gsngaMgs</t>
+  </si>
+  <si>
+    <t>gsang sngags</t>
+  </si>
+  <si>
+    <t>gsub</t>
+  </si>
+  <si>
+    <t>gsung rab</t>
+  </si>
+  <si>
+    <t>gskyairaMs</t>
+  </si>
+  <si>
+    <t>gser skyems</t>
+  </si>
+  <si>
+    <t>s+yauraM</t>
+  </si>
+  <si>
+    <t>gson gshin</t>
+  </si>
+  <si>
+    <t>gon po dang gshin po</t>
+  </si>
+  <si>
+    <t>bstaMn</t>
+  </si>
+  <si>
+    <t>bsam gtan</t>
+  </si>
+  <si>
+    <t>bsaMs</t>
+  </si>
+  <si>
+    <t>bsam yas</t>
+  </si>
+  <si>
+    <t>bsodaMs</t>
+  </si>
+  <si>
+    <t>bsod nams</t>
+  </si>
+  <si>
+    <t>bs+nyoMds</t>
+  </si>
+  <si>
+    <t>bsod snyoms</t>
+  </si>
+  <si>
+    <t>bsru+or</t>
+  </si>
+  <si>
+    <t>bsrung 'khor</t>
+  </si>
+  <si>
+    <t>bslu+ed</t>
+  </si>
+  <si>
+    <t>bslu med</t>
+  </si>
+  <si>
+    <t>bsodanaMs phru+ogs pa'i bkrigo</t>
+  </si>
+  <si>
+    <t>bsod nams phun sum tsshogs pa'i bkra shis shog</t>
+  </si>
+  <si>
+    <t>lhen</t>
+  </si>
+  <si>
+    <t>lha chen</t>
+  </si>
+  <si>
+    <t>l+h+re</t>
+  </si>
+  <si>
+    <t>lta 'der</t>
+  </si>
+  <si>
+    <t>lhogs</t>
+  </si>
+  <si>
+    <t>lha tshogs</t>
+  </si>
+  <si>
+    <t>lh^as</t>
+  </si>
+  <si>
+    <t>lha rdzas</t>
+  </si>
+  <si>
+    <t>l+h+rin</t>
+  </si>
+  <si>
+    <t>lha srin</t>
+  </si>
+  <si>
+    <t>lhi+end</t>
+  </si>
+  <si>
+    <t>lha srin sde brgyad</t>
+  </si>
+  <si>
+    <t>l+h+yes</t>
+  </si>
+  <si>
+    <t>lhan skyes</t>
+  </si>
+  <si>
+    <t>lhinag</t>
+  </si>
+  <si>
+    <t>lhan cig</t>
+  </si>
+  <si>
+    <t>lhig</t>
+  </si>
+  <si>
+    <t>l+h+yas lhan rgyas</t>
+  </si>
+  <si>
+    <t>l+h+rub</t>
+  </si>
+  <si>
+    <t>lhun grub</t>
+  </si>
+  <si>
+    <t>l+h+ru+ib</t>
+  </si>
+  <si>
+    <t>lhun gyis grub</t>
+  </si>
+  <si>
+    <t>lju+engad</t>
+  </si>
+  <si>
+    <t>lhung bthed</t>
+  </si>
+  <si>
+    <t>lhu+ob</t>
+  </si>
+  <si>
+    <t>lho nub</t>
+  </si>
+  <si>
+    <t>lho phyogs</t>
+  </si>
+  <si>
+    <t>l+h+yaugs</t>
+  </si>
+  <si>
+    <t>l+h+yogs</t>
+  </si>
+  <si>
+    <t>bo+o+o+o+o+o+on</t>
+  </si>
+  <si>
+    <t>bon po sngon po gos sngon po</t>
+  </si>
+  <si>
+    <t>jo+o+o+o+o+o+o'</t>
+  </si>
+  <si>
+    <t>jobojomomjo mo bzhob</t>
+  </si>
+  <si>
+    <t>btsu+u+u+u+u+u+un</t>
+  </si>
+  <si>
+    <t>btsun 'jung chung chung bu chung khur</t>
+  </si>
+  <si>
+    <t>dge+e+e+e+e+e+e</t>
+  </si>
+  <si>
+    <t>dge bshes peng ge bre re khyer</t>
+  </si>
+  <si>
+    <t>ti+i+ingi+i+ini+i+i</t>
+  </si>
+  <si>
+    <t>ting 'dzin ji bzhin rig cing gzigs shing 'dzin</t>
+  </si>
+  <si>
+    <t>dugsu+u+u+u+u+uM</t>
+  </si>
+  <si>
+    <t>dug gsum bdud kun myur du bb+tu nus su</t>
+  </si>
+  <si>
+    <t>be+e+e+e+e+e+e+e+edn</t>
+  </si>
+  <si>
+    <t>bde men ye shs che ske gter de dbed</t>
+  </si>
+  <si>
+    <t>nyo+o+o+o+o+o+o+onangs</t>
+  </si>
+  <si>
+    <t>nyon mongs tshogs bcom mgon po khyod mchod</t>
   </si>
 </sst>
 </file>
@@ -2985,10 +4857,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63183466-1C31-42C4-8760-1C1C7E512D37}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:B470"/>
+  <dimension ref="A1:C807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="A471" sqref="A471"/>
+    <sheetView tabSelected="1" topLeftCell="A755" workbookViewId="0">
+      <selection activeCell="A808" sqref="A808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6753,6 +8625,2700 @@
         <v>867</v>
       </c>
     </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>869</v>
+      </c>
+      <c r="B471" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>871</v>
+      </c>
+      <c r="B472" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>875</v>
+      </c>
+      <c r="B474" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>877</v>
+      </c>
+      <c r="B475" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>879</v>
+      </c>
+      <c r="B476" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>881</v>
+      </c>
+      <c r="B477" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>883</v>
+      </c>
+      <c r="B478" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>885</v>
+      </c>
+      <c r="B479" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>887</v>
+      </c>
+      <c r="B480" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>889</v>
+      </c>
+      <c r="B481" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>891</v>
+      </c>
+      <c r="B482" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>893</v>
+      </c>
+      <c r="B483" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>895</v>
+      </c>
+      <c r="B484" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>897</v>
+      </c>
+      <c r="B485" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>899</v>
+      </c>
+      <c r="B486" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>901</v>
+      </c>
+      <c r="B487" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>902</v>
+      </c>
+      <c r="B488" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>904</v>
+      </c>
+      <c r="B489" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>906</v>
+      </c>
+      <c r="B490" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>908</v>
+      </c>
+      <c r="B491" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>909</v>
+      </c>
+      <c r="B492" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>911</v>
+      </c>
+      <c r="B493" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>912</v>
+      </c>
+      <c r="B494" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>914</v>
+      </c>
+      <c r="B495" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>916</v>
+      </c>
+      <c r="B496" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>917</v>
+      </c>
+      <c r="B497" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>899</v>
+      </c>
+      <c r="B498" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>919</v>
+      </c>
+      <c r="B499" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>921</v>
+      </c>
+      <c r="B500" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>923</v>
+      </c>
+      <c r="B501" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>925</v>
+      </c>
+      <c r="B502" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>927</v>
+      </c>
+      <c r="B503" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>929</v>
+      </c>
+      <c r="B504" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>931</v>
+      </c>
+      <c r="B505" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>933</v>
+      </c>
+      <c r="B506" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>935</v>
+      </c>
+      <c r="B507" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>937</v>
+      </c>
+      <c r="B508" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>933</v>
+      </c>
+      <c r="B509" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>939</v>
+      </c>
+      <c r="B510" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>941</v>
+      </c>
+      <c r="B511" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>943</v>
+      </c>
+      <c r="B512" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>945</v>
+      </c>
+      <c r="B513" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>947</v>
+      </c>
+      <c r="B514" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>949</v>
+      </c>
+      <c r="B515" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>951</v>
+      </c>
+      <c r="B516" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>953</v>
+      </c>
+      <c r="B517" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>954</v>
+      </c>
+      <c r="B518" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>956</v>
+      </c>
+      <c r="B519" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>958</v>
+      </c>
+      <c r="B520" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>960</v>
+      </c>
+      <c r="B521" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>970</v>
+      </c>
+      <c r="B526" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>970</v>
+      </c>
+      <c r="B527" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>973</v>
+      </c>
+      <c r="B528" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>976</v>
+      </c>
+      <c r="B529" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>977</v>
+      </c>
+      <c r="B530" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>979</v>
+      </c>
+      <c r="B531" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>981</v>
+      </c>
+      <c r="B532" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>982</v>
+      </c>
+      <c r="B533" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>984</v>
+      </c>
+      <c r="B534" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>986</v>
+      </c>
+      <c r="B535" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>988</v>
+      </c>
+      <c r="B536" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>990</v>
+      </c>
+      <c r="B537" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>992</v>
+      </c>
+      <c r="B538" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>994</v>
+      </c>
+      <c r="B539" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>996</v>
+      </c>
+      <c r="B540" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>997</v>
+      </c>
+      <c r="B541" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>999</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C664" s="1"/>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>809</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
